--- a/raw/Amp3.xlsx
+++ b/raw/Amp3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t xml:space="preserve">V1</t>
   </si>
@@ -44,10 +44,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -89,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -98,80 +97,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -200,7 +129,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -209,63 +138,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -286,406 +171,430 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.89795918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>0.234</v>
-      </c>
-      <c r="C3" s="8" t="n">
+      <c r="B3" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="n">
+      <c r="D3" s="4" t="n">
         <v>0.344</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="n">
+      <c r="E3" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="n">
+      <c r="B4" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="n">
+      <c r="E4" s="4" t="n">
         <v>1.3</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="n">
+      <c r="B5" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="n">
+      <c r="D5" s="4" t="n">
         <v>0.96</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="n">
+      <c r="E5" s="4" t="n">
         <v>1.98</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="n">
+      <c r="B6" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="n">
+      <c r="D6" s="4" t="n">
         <v>1.56</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="E6" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+      <c r="A7" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="n">
+      <c r="B7" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="n">
+      <c r="D7" s="4" t="n">
         <v>2.1</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="n">
+      <c r="E7" s="4" t="n">
         <v>4.48</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="n">
+      <c r="B8" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="n">
+      <c r="D8" s="4" t="n">
         <v>2.48</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12" t="n">
+      <c r="E8" s="4" t="n">
         <v>5.12</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15" t="n">
+      <c r="B9" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>0.32</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15" t="n">
+      <c r="D9" s="4" t="n">
         <v>2.82</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15" t="n">
+      <c r="E9" s="4" t="n">
         <v>5.84</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="B10" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>0.32</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="4" t="n">
         <v>2.98</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="E10" s="4" t="n">
         <v>6.24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="C11" s="16" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="B11" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>3.12</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="E11" s="4" t="n">
         <v>6.56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="3" t="n">
         <v>520</v>
       </c>
-      <c r="C12" s="16" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="B12" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E12" s="4" t="n">
         <v>6.64</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="3" t="n">
         <v>760</v>
       </c>
-      <c r="C13" s="16" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="B13" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E13" s="4" t="n">
         <v>6.72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="3" t="n">
         <v>1090</v>
       </c>
-      <c r="C14" s="16" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="G14" s="0" t="n">
+      <c r="B14" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E14" s="4" t="n">
         <v>6.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="3" t="n">
         <v>1570</v>
       </c>
-      <c r="C15" s="16" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="B15" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E15" s="4" t="n">
         <v>6.8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="3" t="n">
         <v>2260</v>
       </c>
-      <c r="C16" s="16" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E16" s="16" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="G16" s="0" t="n">
+      <c r="B16" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E16" s="4" t="n">
         <v>6.8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="3" t="n">
         <v>3247</v>
       </c>
-      <c r="C17" s="16" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="G17" s="0" t="n">
+      <c r="B17" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E17" s="4" t="n">
         <v>6.8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="3" t="n">
         <v>4671</v>
       </c>
-      <c r="C18" s="16" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="G18" s="0" t="n">
+      <c r="B18" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E18" s="4" t="n">
         <v>6.8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="3" t="n">
         <v>6719</v>
       </c>
-      <c r="C19" s="16" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="B19" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>3.2</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="E19" s="4" t="n">
         <v>6.72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="3" t="n">
         <v>9665</v>
       </c>
-      <c r="C20" s="16" t="n">
+      <c r="B20" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C20" s="4" t="n">
         <v>0.32</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="D20" s="4" t="n">
         <v>3.2</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="E20" s="4" t="n">
         <v>6.64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="3" t="n">
         <v>13903</v>
       </c>
-      <c r="C21" s="16" t="n">
+      <c r="B21" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C21" s="4" t="n">
         <v>0.32</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="D21" s="4" t="n">
         <v>3.16</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="E21" s="4" t="n">
         <v>6.56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="C22" s="16" t="n">
+      <c r="B22" s="3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="C22" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="D22" s="4" t="n">
         <v>3.04</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="E22" s="4" t="n">
         <v>6.24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
